--- a/time recording/Steven Wang_Attendance Records List_2018-07.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-07.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,6 +95,26 @@
   </si>
   <si>
     <t>Need to Approve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:00:00
+16:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US&amp;UI Design for Risk Management
+Refinement to Project Management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US&amp;UI Design for Risk Management
+Refinement to Project Management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00:00
+13:00:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -286,6 +306,39 @@
     <xf numFmtId="20" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -297,39 +350,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,37 +673,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="10"/>
@@ -694,7 +714,7 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -703,7 +723,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -712,7 +732,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -721,7 +741,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -730,7 +750,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
@@ -741,7 +761,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -750,7 +770,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -759,7 +779,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -768,7 +788,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -777,7 +797,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
@@ -788,7 +808,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -797,14 +817,14 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="24">
+      <c r="A15" s="22"/>
+      <c r="B15" s="11">
         <v>43299</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="2">
@@ -818,14 +838,14 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="24">
+      <c r="A16" s="22"/>
+      <c r="B16" s="11">
         <v>43300</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="2">
@@ -839,7 +859,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -847,28 +867,52 @@
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="B18" s="11">
+        <v>43304</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="11">
+        <v>43305</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -877,7 +921,7 @@
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -886,7 +930,7 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -895,7 +939,7 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="10"/>
@@ -906,7 +950,7 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -915,7 +959,7 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -924,7 +968,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="11"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -933,7 +977,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="11"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -944,22 +988,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>12.5</v>
+        <v>24.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-07.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-07.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -58,6 +58,19 @@
   </si>
   <si>
     <t>Weekly 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:30:00
+17:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US&amp;UI Design for Risk Management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need to Approve</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -66,55 +79,63 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>12:00:00
+18:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US&amp;UI Design for Risk Management
+Meeting with Chiansol</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Need to Approve</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US&amp;UI Design for Risk Management
+Refinement to Project Management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US&amp;UI Design for Risk Management
+Refinement to Project Management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00:00
+13:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US&amp;UI Design for Risk Management
+Refinement to Project Management
+Weekly Meeting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00:00
+13:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>12:30:00
 17:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>US&amp;UI Design for Risk Management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need to Approve</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10:00:00
 14:00:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>10:00:00
+14:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>12:00:00
-18:30:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US&amp;UI Design for Risk Management
-Meeting with Chiansol</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Need to Approve</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:00:00
-16:30:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US&amp;UI Design for Risk Management
-Refinement to Project Management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US&amp;UI Design for Risk Management
-Refinement to Project Management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10:00:00
-13:00:00</t>
+17:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -312,6 +333,18 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,18 +370,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -657,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -673,37 +694,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="10"/>
@@ -714,7 +735,7 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -723,7 +744,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -732,7 +753,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -741,7 +762,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -750,7 +771,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
@@ -761,7 +782,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -770,7 +791,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -779,7 +800,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -788,7 +809,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -797,7 +818,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
@@ -807,59 +828,71 @@
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="11">
+        <v>43298</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="11">
         <v>43299</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="11">
         <v>43300</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>6.5</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -868,60 +901,72 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11">
         <v>43304</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="11">
         <v>43305</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2">
         <v>7.5</v>
       </c>
       <c r="F19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11">
+        <v>43306</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
+      <c r="G20" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -930,7 +975,7 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -939,7 +984,7 @@
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="10"/>
@@ -950,7 +995,7 @@
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -959,7 +1004,7 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -968,7 +1013,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -977,7 +1022,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -988,22 +1033,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>24.5</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-07.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-07.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -136,6 +136,24 @@
   <si>
     <t>12:00:00
 17:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refinement to Project Management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refinement to Project Management</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11:30:00
+18:30:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00:00
+14:00:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -333,6 +351,33 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -343,33 +388,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -678,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -694,37 +712,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="17"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="13"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="10"/>
@@ -735,7 +753,7 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -744,7 +762,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -753,7 +771,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -762,7 +780,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -771,7 +789,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
@@ -782,7 +800,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -791,7 +809,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -800,7 +818,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -809,7 +827,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -818,7 +836,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
@@ -829,7 +847,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="13"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="11">
         <v>43298</v>
       </c>
@@ -850,7 +868,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="13"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="11">
         <v>43299</v>
       </c>
@@ -871,7 +889,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="11">
         <v>43300</v>
       </c>
@@ -892,7 +910,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="13"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -901,7 +919,7 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11">
@@ -924,7 +942,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="13"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="11">
         <v>43305</v>
       </c>
@@ -945,7 +963,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="13"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="11">
         <v>43306</v>
       </c>
@@ -966,7 +984,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="13"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -974,28 +992,52 @@
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="11">
+        <v>43308</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="B23" s="11">
+        <v>43311</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="2">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1004,7 +1046,7 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1013,7 +1055,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1022,7 +1064,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1033,22 +1075,22 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E28">
         <f>SUM(E3:E27)</f>
-        <v>40</v>
+        <v>53.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/time recording/Steven Wang_Attendance Records List_2018-07.xlsx
+++ b/time recording/Steven Wang_Attendance Records List_2018-07.xlsx
@@ -139,14 +139,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Refinement to Project Management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refinement to Project Management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>11:30:00
 18:30:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -154,6 +146,14 @@
   <si>
     <t>09:00:00
 14:00:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refinement to Project Management (US&amp;UI)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Refinement to Project Management(US&amp;UI)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -351,6 +351,18 @@
     <xf numFmtId="20" fontId="0" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -376,18 +388,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -712,37 +712,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="17" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="13"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="17"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="14" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="10"/>
@@ -753,7 +753,7 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="24"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -762,7 +762,7 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="24"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -771,7 +771,7 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -780,7 +780,7 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="25"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -789,7 +789,7 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="10"/>
@@ -800,7 +800,7 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="22"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -809,7 +809,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="22"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -818,7 +818,7 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A11" s="22"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -827,7 +827,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -836,7 +836,7 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="10"/>
@@ -847,7 +847,7 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A14" s="22"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="11">
         <v>43298</v>
       </c>
@@ -868,7 +868,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="22"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="11">
         <v>43299</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A16" s="22"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="11">
         <v>43300</v>
       </c>
@@ -910,7 +910,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="22"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -919,7 +919,7 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="11">
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="22"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="11">
         <v>43305</v>
       </c>
@@ -963,7 +963,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="22"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="11">
         <v>43306</v>
       </c>
@@ -984,7 +984,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="22"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -993,7 +993,7 @@
       <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="22"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="11">
         <v>43308</v>
       </c>
@@ -1007,37 +1007,37 @@
         <v>6.5</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="13" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="11">
         <v>43311</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" s="2">
         <v>7</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A24" s="22"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -1046,7 +1046,7 @@
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A25" s="22"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
@@ -1055,7 +1055,7 @@
       <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="22"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -1064,7 +1064,7 @@
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -1080,17 +1080,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
